--- a/src/com/generic/testdata/DataSheet.xlsx
+++ b/src/com/generic/testdata/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="tmp" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="M1:Q14"/>
+  <oleSize ref="A1:K13"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,22 +792,79 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44122</v>
+      </c>
+      <c r="G3" s="14">
+        <v>123</v>
+      </c>
+      <c r="H3" s="14">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -815,11 +872,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="54" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -985,9 +1045,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/com/generic/testdata/DataSheet.xlsx
+++ b/src/com/generic/testdata/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="tmp" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K13"/>
+  <oleSize ref="A1"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -56,12 +56,6 @@
     <t>aa@gg.cc</t>
   </si>
   <si>
-    <t>Abeer</t>
-  </si>
-  <si>
-    <t>Alia</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>cc@dd.cc</t>
   </si>
   <si>
-    <t>Sara</t>
-  </si>
-  <si>
     <t>email.errors</t>
   </si>
   <si>
@@ -125,16 +116,19 @@
     <t>Please enter a strong password (at least 6 characters)</t>
   </si>
   <si>
-    <t>Please confirm your password</t>
-  </si>
-  <si>
     <t>An account already exists for this email address in the Tommy Bahama Main Site. You can use the same account to login to the Tommy Bahama Main Site.</t>
   </si>
   <si>
-    <t>pwd</t>
-  </si>
-  <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Accepta</t>
   </si>
 </sst>
 </file>
@@ -630,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -649,19 +643,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -674,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +693,7 @@
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -721,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>9</v>
@@ -730,141 +722,65 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11">
-        <v>44122</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="14">
-        <v>44122</v>
-      </c>
-      <c r="G3" s="14">
-        <v>123</v>
-      </c>
-      <c r="H3" s="14">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -872,16 +788,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="54" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>9</v>
@@ -910,31 +842,31 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -942,26 +874,26 @@
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="11">
         <v>44122</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -973,19 +905,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="14">
         <v>44122</v>
@@ -1004,9 +936,8 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1019,35 +950,30 @@
       <c r="H4" s="14"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/com/generic/testdata/DataSheet.xlsx
+++ b/src/com/generic/testdata/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="tmp" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M16"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -129,6 +129,60 @@
   </si>
   <si>
     <t>Accepta</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>sel_email</t>
+  </si>
+  <si>
+    <t>sel_checkEmail</t>
+  </si>
+  <si>
+    <t>sel_firstName</t>
+  </si>
+  <si>
+    <t>sel_lastName</t>
+  </si>
+  <si>
+    <t>sel_country</t>
+  </si>
+  <si>
+    <t>sel_postalCode</t>
+  </si>
+  <si>
+    <t>sel_password</t>
+  </si>
+  <si>
+    <t>sel_heckPwd</t>
+  </si>
+  <si>
+    <t>sel_createAccount</t>
+  </si>
+  <si>
+    <t>sel_email.errors</t>
+  </si>
+  <si>
+    <t>sel_checkEmail.errors</t>
+  </si>
+  <si>
+    <t>sel_firstName.errors</t>
+  </si>
+  <si>
+    <t>sel_lastName.errors</t>
+  </si>
+  <si>
+    <t>sel_country.errors</t>
+  </si>
+  <si>
+    <t>sel_postalCode.errors</t>
+  </si>
+  <si>
+    <t>sel_pwd.errors</t>
+  </si>
+  <si>
+    <t>sel_checkPwd.errors</t>
   </si>
 </sst>
 </file>
@@ -624,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +720,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11">
+        <v>44122</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11">
+        <v>44122</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14">
+        <v>44122</v>
+      </c>
+      <c r="H4" s="14">
+        <v>123</v>
+      </c>
+      <c r="I4" s="14">
+        <v>123</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,126 +1040,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="2" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>11</v>

--- a/src/com/generic/testdata/DataSheet.xlsx
+++ b/src/com/generic/testdata/DataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17175" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet name="tmp" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M16"/>
+  <oleSize ref="A1"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -131,6 +131,27 @@
     <t>Accepta</t>
   </si>
   <si>
+    <t>Abeer</t>
+  </si>
+  <si>
+    <t>Alia</t>
+  </si>
+  <si>
+    <t>random_equal</t>
+  </si>
+  <si>
+    <t>random_not_equal</t>
+  </si>
+  <si>
+    <t>Hala</t>
+  </si>
+  <si>
+    <t>Sayegh</t>
+  </si>
+  <si>
+    <t>Email confirmation address does not match</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -155,7 +176,7 @@
     <t>sel_password</t>
   </si>
   <si>
-    <t>sel_heckPwd</t>
+    <t>sel_checkPwd</t>
   </si>
   <si>
     <t>sel_createAccount</t>
@@ -188,8 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +238,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -294,7 +320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -332,6 +358,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,23 +477,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -483,23 +512,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,7 +691,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,16 +732,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -737,100 +749,102 @@
     <col min="8" max="8" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="L1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="22">
         <v>44122</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -839,77 +853,73 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>44122</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="H3" s="14">
+        <v>123</v>
+      </c>
+      <c r="I3" s="14">
+        <v>123</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14">
-        <v>44122</v>
-      </c>
-      <c r="H4" s="14">
-        <v>123</v>
-      </c>
-      <c r="I4" s="14">
-        <v>123</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>31</v>
       </c>
@@ -917,41 +927,81 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14">
+        <v>44122</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14">
+        <v>44122</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -963,7 +1013,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="F10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/com/generic/testdata/DataSheet.xlsx
+++ b/src/com/generic/testdata/DataSheet.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="17175" windowHeight="6390" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="5" r:id="rId2"/>
-    <sheet name="tmp" sheetId="6" r:id="rId3"/>
+    <sheet name="CheckOut" sheetId="7" r:id="rId3"/>
+    <sheet name="Products" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>TCID</t>
   </si>
@@ -26,33 +26,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Registrations from Header</t>
   </si>
   <si>
-    <t>checkEmail</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>postalCode</t>
-  </si>
-  <si>
-    <t>checkPwd</t>
-  </si>
-  <si>
-    <t>createAccount</t>
-  </si>
-  <si>
     <t>aa@gg.cc</t>
   </si>
   <si>
@@ -68,33 +44,6 @@
     <t>NumberOfTestCases</t>
   </si>
   <si>
-    <t>cc@dd.cc</t>
-  </si>
-  <si>
-    <t>email.errors</t>
-  </si>
-  <si>
-    <t>checkEmail.errors</t>
-  </si>
-  <si>
-    <t>firstName.errors</t>
-  </si>
-  <si>
-    <t>lastName.errors</t>
-  </si>
-  <si>
-    <t>country.errors</t>
-  </si>
-  <si>
-    <t>pwd.errors</t>
-  </si>
-  <si>
-    <t>postalCode.errors</t>
-  </si>
-  <si>
-    <t>checkPwd.errors</t>
-  </si>
-  <si>
     <t>Please enter a valid email</t>
   </si>
   <si>
@@ -119,9 +68,6 @@
     <t>An account already exists for this email address in the Tommy Bahama Main Site. You can use the same account to login to the Tommy Bahama Main Site.</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Accept</t>
   </si>
   <si>
@@ -131,24 +77,12 @@
     <t>Accepta</t>
   </si>
   <si>
-    <t>Abeer</t>
-  </si>
-  <si>
-    <t>Alia</t>
-  </si>
-  <si>
     <t>random_equal</t>
   </si>
   <si>
     <t>random_not_equal</t>
   </si>
   <si>
-    <t>Hala</t>
-  </si>
-  <si>
-    <t>Sayegh</t>
-  </si>
-  <si>
     <t>Email confirmation address does not match</t>
   </si>
   <si>
@@ -204,12 +138,81 @@
   </si>
   <si>
     <t>sel_checkPwd.errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already existed mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive login with valid user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all is empty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confliect in mail </t>
+  </si>
+  <si>
+    <t>weak password</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>/yacceleratorstorefront/en/Categories/Bags%2BBoardbags/Bags/Seizure-Satchel/p/300613490</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Size Uni, £34.79  21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">products </t>
+  </si>
+  <si>
+    <t>/yacceleratorstorefront/en/Categories/Bags%2BBoardbags/Bags/Seizure-Bag/p/300441924</t>
+  </si>
+  <si>
+    <t>clay court</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Size Uni, £24.26  4</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>General checkout case- Guest</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment </t>
+  </si>
+  <si>
+    <t>giftcard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -290,24 +293,41 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -320,64 +340,83 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,6 +516,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -512,6 +568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,24 +775,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -734,270 +807,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>44122</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11">
+        <v>44122</v>
+      </c>
+      <c r="H3" s="11">
+        <v>123</v>
+      </c>
+      <c r="I3" s="11">
+        <v>123</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22">
+      <c r="P4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
         <v>44122</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14">
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
         <v>44122</v>
       </c>
-      <c r="H3" s="14">
-        <v>123</v>
-      </c>
-      <c r="I3" s="14">
-        <v>123</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14">
-        <v>44122</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="14">
-        <v>44122</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="H6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1010,195 +1094,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
+    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11">
-        <v>44122</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14">
-        <v>44122</v>
-      </c>
-      <c r="G3" s="14">
-        <v>123</v>
-      </c>
-      <c r="H3" s="14">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>